--- a/output/PxQ_UE_TaRL.xlsx
+++ b/output/PxQ_UE_TaRL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>nom_pliego</t>
   </si>
@@ -36,6 +36,9 @@
     <t>DRE CAJAMARCA</t>
   </si>
   <si>
+    <t>DRE CALLAO</t>
+  </si>
+  <si>
     <t>DRE CUSCO</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>DRE LAMBAYEQUE</t>
   </si>
   <si>
+    <t>DRE LIMA METROPOLITANA</t>
+  </si>
+  <si>
     <t>DRE LIMA PROVINCIAS</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
   </si>
   <si>
     <t>DRE SAN MARTIN</t>
+  </si>
+  <si>
+    <t>DRE TACNA</t>
   </si>
   <si>
     <t>DRE TUMBES</t>
@@ -170,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -178,46 +187,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -225,46 +234,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C2" s="0">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D2" s="0">
-        <v>1412</v>
+        <v>1545</v>
       </c>
       <c r="E2" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0">
-        <v>720000</v>
+        <v>1008000</v>
       </c>
       <c r="G2" s="0">
-        <v>39240</v>
+        <v>54936</v>
       </c>
       <c r="H2" s="0">
-        <v>9000</v>
+        <v>12600</v>
       </c>
       <c r="I2" s="0">
-        <v>432000</v>
+        <v>604800</v>
       </c>
       <c r="J2" s="0">
-        <v>218880</v>
+        <v>299520</v>
       </c>
       <c r="K2" s="0">
-        <v>7060</v>
+        <v>7725</v>
       </c>
       <c r="L2" s="0">
-        <v>2824</v>
+        <v>3090</v>
       </c>
       <c r="M2" s="0">
-        <v>2824</v>
+        <v>3090</v>
       </c>
       <c r="N2" s="0">
-        <v>1200</v>
+        <v>1680</v>
       </c>
       <c r="O2" s="0">
-        <v>4560</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="3">
@@ -272,46 +281,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C3" s="0">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D3" s="0">
-        <v>2246</v>
+        <v>3009</v>
       </c>
       <c r="E3" s="0">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F3" s="0">
-        <v>1152000</v>
+        <v>1536000</v>
       </c>
       <c r="G3" s="0">
-        <v>62784</v>
+        <v>83712</v>
       </c>
       <c r="H3" s="0">
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="I3" s="0">
-        <v>691200</v>
+        <v>921600</v>
       </c>
       <c r="J3" s="0">
-        <v>326400</v>
+        <v>453120</v>
       </c>
       <c r="K3" s="0">
-        <v>11230</v>
+        <v>15045</v>
       </c>
       <c r="L3" s="0">
-        <v>4492</v>
+        <v>6018</v>
       </c>
       <c r="M3" s="0">
-        <v>4492</v>
+        <v>6018</v>
       </c>
       <c r="N3" s="0">
-        <v>1920</v>
+        <v>2560</v>
       </c>
       <c r="O3" s="0">
-        <v>6800</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="4">
@@ -319,13 +328,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
       </c>
       <c r="D4" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0">
         <v>2</v>
@@ -346,13 +355,13 @@
         <v>3840</v>
       </c>
       <c r="K4" s="0">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="L4" s="0">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M4" s="0">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N4" s="0">
         <v>80</v>
@@ -366,46 +375,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0">
-        <v>60</v>
+        <v>563</v>
       </c>
       <c r="E5" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0">
-        <v>48000</v>
+        <v>312000</v>
       </c>
       <c r="G5" s="0">
-        <v>2616</v>
+        <v>17004</v>
       </c>
       <c r="H5" s="0">
-        <v>600</v>
+        <v>3900</v>
       </c>
       <c r="I5" s="0">
-        <v>28800</v>
+        <v>187200</v>
       </c>
       <c r="J5" s="0">
-        <v>7680</v>
+        <v>76800</v>
       </c>
       <c r="K5" s="0">
-        <v>300</v>
+        <v>2815</v>
       </c>
       <c r="L5" s="0">
-        <v>120</v>
+        <v>1126</v>
       </c>
       <c r="M5" s="0">
-        <v>120</v>
+        <v>1126</v>
       </c>
       <c r="N5" s="0">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="O5" s="0">
-        <v>160</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6">
@@ -413,46 +422,46 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="E6" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="0">
-        <v>192000</v>
+        <v>144000</v>
       </c>
       <c r="G6" s="0">
-        <v>10464</v>
+        <v>7848</v>
       </c>
       <c r="H6" s="0">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="I6" s="0">
-        <v>115200</v>
+        <v>86400</v>
       </c>
       <c r="J6" s="0">
-        <v>44160</v>
+        <v>23040</v>
       </c>
       <c r="K6" s="0">
-        <v>1235</v>
+        <v>660</v>
       </c>
       <c r="L6" s="0">
-        <v>494</v>
+        <v>264</v>
       </c>
       <c r="M6" s="0">
-        <v>494</v>
+        <v>264</v>
       </c>
       <c r="N6" s="0">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="O6" s="0">
-        <v>920</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
@@ -460,46 +469,46 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>687</v>
+        <v>836</v>
       </c>
       <c r="C7" s="0">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D7" s="0">
-        <v>13962</v>
+        <v>11841</v>
       </c>
       <c r="E7" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F7" s="0">
-        <v>6408000</v>
+        <v>6336000</v>
       </c>
       <c r="G7" s="0">
-        <v>349236</v>
+        <v>345312</v>
       </c>
       <c r="H7" s="0">
-        <v>80100</v>
+        <v>79200</v>
       </c>
       <c r="I7" s="0">
-        <v>3844800</v>
+        <v>3801600</v>
       </c>
       <c r="J7" s="0">
-        <v>2006400</v>
+        <v>1994880</v>
       </c>
       <c r="K7" s="0">
-        <v>69810</v>
+        <v>59205</v>
       </c>
       <c r="L7" s="0">
-        <v>27924</v>
+        <v>23682</v>
       </c>
       <c r="M7" s="0">
-        <v>27924</v>
+        <v>23682</v>
       </c>
       <c r="N7" s="0">
-        <v>10680</v>
+        <v>10560</v>
       </c>
       <c r="O7" s="0">
-        <v>41800</v>
+        <v>41560</v>
       </c>
     </row>
     <row r="8">
@@ -507,46 +516,46 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="E8" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>216000</v>
+        <v>24000</v>
       </c>
       <c r="G8" s="0">
-        <v>11772</v>
+        <v>1308</v>
       </c>
       <c r="H8" s="0">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="I8" s="0">
-        <v>129600</v>
+        <v>14400</v>
       </c>
       <c r="J8" s="0">
-        <v>49920</v>
+        <v>5760</v>
       </c>
       <c r="K8" s="0">
-        <v>1665</v>
+        <v>220</v>
       </c>
       <c r="L8" s="0">
-        <v>666</v>
+        <v>88</v>
       </c>
       <c r="M8" s="0">
-        <v>666</v>
+        <v>88</v>
       </c>
       <c r="N8" s="0">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="O8" s="0">
-        <v>1040</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -554,46 +563,46 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0">
-        <v>1230</v>
+        <v>356</v>
       </c>
       <c r="E9" s="0">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0">
-        <v>672000</v>
+        <v>288000</v>
       </c>
       <c r="G9" s="0">
-        <v>36624</v>
+        <v>15696</v>
       </c>
       <c r="H9" s="0">
-        <v>8400</v>
+        <v>3600</v>
       </c>
       <c r="I9" s="0">
-        <v>403200</v>
+        <v>172800</v>
       </c>
       <c r="J9" s="0">
-        <v>203520</v>
+        <v>71040</v>
       </c>
       <c r="K9" s="0">
-        <v>6150</v>
+        <v>1780</v>
       </c>
       <c r="L9" s="0">
-        <v>2460</v>
+        <v>712</v>
       </c>
       <c r="M9" s="0">
-        <v>2460</v>
+        <v>712</v>
       </c>
       <c r="N9" s="0">
-        <v>1120</v>
+        <v>480</v>
       </c>
       <c r="O9" s="0">
-        <v>4240</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="10">
@@ -601,46 +610,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="D10" s="0">
-        <v>3880</v>
+        <v>847</v>
       </c>
       <c r="E10" s="0">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0">
-        <v>1824000</v>
+        <v>672000</v>
       </c>
       <c r="G10" s="0">
-        <v>99408</v>
+        <v>36624</v>
       </c>
       <c r="H10" s="0">
-        <v>22800</v>
+        <v>8400</v>
       </c>
       <c r="I10" s="0">
-        <v>1094400</v>
+        <v>403200</v>
       </c>
       <c r="J10" s="0">
-        <v>558720</v>
+        <v>190080</v>
       </c>
       <c r="K10" s="0">
-        <v>19400</v>
+        <v>4235</v>
       </c>
       <c r="L10" s="0">
-        <v>7760</v>
+        <v>1694</v>
       </c>
       <c r="M10" s="0">
-        <v>7760</v>
+        <v>1694</v>
       </c>
       <c r="N10" s="0">
-        <v>3040</v>
+        <v>1120</v>
       </c>
       <c r="O10" s="0">
-        <v>11640</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="11">
@@ -648,46 +657,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="C11" s="0">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="D11" s="0">
-        <v>130</v>
+        <v>3244</v>
       </c>
       <c r="E11" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F11" s="0">
-        <v>144000</v>
+        <v>2016000</v>
       </c>
       <c r="G11" s="0">
-        <v>7848</v>
+        <v>109872</v>
       </c>
       <c r="H11" s="0">
-        <v>1800</v>
+        <v>25200</v>
       </c>
       <c r="I11" s="0">
-        <v>86400</v>
+        <v>1209600</v>
       </c>
       <c r="J11" s="0">
-        <v>32640</v>
+        <v>616320</v>
       </c>
       <c r="K11" s="0">
-        <v>650</v>
+        <v>16220</v>
       </c>
       <c r="L11" s="0">
-        <v>260</v>
+        <v>6488</v>
       </c>
       <c r="M11" s="0">
-        <v>260</v>
+        <v>6488</v>
       </c>
       <c r="N11" s="0">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="O11" s="0">
-        <v>680</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="12">
@@ -695,46 +704,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0">
-        <v>1283</v>
+        <v>460</v>
       </c>
       <c r="E12" s="0">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0">
-        <v>888000</v>
+        <v>360000</v>
       </c>
       <c r="G12" s="0">
-        <v>48396</v>
+        <v>19620</v>
       </c>
       <c r="H12" s="0">
-        <v>11100</v>
+        <v>4500</v>
       </c>
       <c r="I12" s="0">
-        <v>532800</v>
+        <v>216000</v>
       </c>
       <c r="J12" s="0">
-        <v>230400</v>
+        <v>96000</v>
       </c>
       <c r="K12" s="0">
-        <v>6415</v>
+        <v>2300</v>
       </c>
       <c r="L12" s="0">
-        <v>2566</v>
+        <v>920</v>
       </c>
       <c r="M12" s="0">
-        <v>2566</v>
+        <v>920</v>
       </c>
       <c r="N12" s="0">
-        <v>1480</v>
+        <v>600</v>
       </c>
       <c r="O12" s="0">
-        <v>4800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13">
@@ -742,46 +751,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="C13" s="0">
-        <v>927</v>
+        <v>261</v>
       </c>
       <c r="D13" s="0">
-        <v>13527</v>
+        <v>2679</v>
       </c>
       <c r="E13" s="0">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="F13" s="0">
-        <v>5664000</v>
+        <v>1680000</v>
       </c>
       <c r="G13" s="0">
-        <v>308688</v>
+        <v>91560</v>
       </c>
       <c r="H13" s="0">
-        <v>70800</v>
+        <v>21000</v>
       </c>
       <c r="I13" s="0">
-        <v>3398400</v>
+        <v>1008000</v>
       </c>
       <c r="J13" s="0">
-        <v>1779840</v>
+        <v>501120</v>
       </c>
       <c r="K13" s="0">
-        <v>67635</v>
+        <v>13395</v>
       </c>
       <c r="L13" s="0">
-        <v>27054</v>
+        <v>5358</v>
       </c>
       <c r="M13" s="0">
-        <v>27054</v>
+        <v>5358</v>
       </c>
       <c r="N13" s="0">
-        <v>9440</v>
+        <v>2800</v>
       </c>
       <c r="O13" s="0">
-        <v>37080</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="14">
@@ -789,46 +798,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>87</v>
+        <v>626</v>
       </c>
       <c r="C14" s="0">
-        <v>133</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="0">
-        <v>1751</v>
+        <v>14202</v>
       </c>
       <c r="E14" s="0">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="F14" s="0">
-        <v>840000</v>
+        <v>6312000</v>
       </c>
       <c r="G14" s="0">
-        <v>45780</v>
+        <v>344004</v>
       </c>
       <c r="H14" s="0">
-        <v>10500</v>
+        <v>78900</v>
       </c>
       <c r="I14" s="0">
-        <v>504000</v>
+        <v>3787200</v>
       </c>
       <c r="J14" s="0">
-        <v>255360</v>
+        <v>1983360</v>
       </c>
       <c r="K14" s="0">
-        <v>8755</v>
+        <v>71010</v>
       </c>
       <c r="L14" s="0">
-        <v>3502</v>
+        <v>28404</v>
       </c>
       <c r="M14" s="0">
-        <v>3502</v>
+        <v>28404</v>
       </c>
       <c r="N14" s="0">
-        <v>1400</v>
+        <v>10520</v>
       </c>
       <c r="O14" s="0">
-        <v>5320</v>
+        <v>41320</v>
       </c>
     </row>
     <row r="15">
@@ -836,46 +845,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C15" s="0">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="D15" s="0">
-        <v>434</v>
+        <v>3989</v>
       </c>
       <c r="E15" s="0">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F15" s="0">
-        <v>312000</v>
+        <v>1704000</v>
       </c>
       <c r="G15" s="0">
-        <v>17004</v>
+        <v>92868</v>
       </c>
       <c r="H15" s="0">
-        <v>3900</v>
+        <v>21300</v>
       </c>
       <c r="I15" s="0">
-        <v>187200</v>
+        <v>1022400</v>
       </c>
       <c r="J15" s="0">
-        <v>86400</v>
+        <v>533760</v>
       </c>
       <c r="K15" s="0">
-        <v>2170</v>
+        <v>19945</v>
       </c>
       <c r="L15" s="0">
-        <v>868</v>
+        <v>7978</v>
       </c>
       <c r="M15" s="0">
-        <v>868</v>
+        <v>7978</v>
       </c>
       <c r="N15" s="0">
-        <v>520</v>
+        <v>2840</v>
       </c>
       <c r="O15" s="0">
-        <v>1800</v>
+        <v>11120</v>
       </c>
     </row>
     <row r="16">
@@ -883,46 +892,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>544</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0">
-        <v>873</v>
+        <v>55</v>
       </c>
       <c r="D16" s="0">
-        <v>11569</v>
+        <v>1051</v>
       </c>
       <c r="E16" s="0">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="F16" s="0">
-        <v>5280000</v>
+        <v>408000</v>
       </c>
       <c r="G16" s="0">
-        <v>287760</v>
+        <v>22236</v>
       </c>
       <c r="H16" s="0">
-        <v>66000</v>
+        <v>5100</v>
       </c>
       <c r="I16" s="0">
-        <v>3168000</v>
+        <v>244800</v>
       </c>
       <c r="J16" s="0">
-        <v>1676160</v>
+        <v>105600</v>
       </c>
       <c r="K16" s="0">
-        <v>57845</v>
+        <v>5255</v>
       </c>
       <c r="L16" s="0">
-        <v>23138</v>
+        <v>2102</v>
       </c>
       <c r="M16" s="0">
-        <v>23138</v>
+        <v>2102</v>
       </c>
       <c r="N16" s="0">
-        <v>8800</v>
+        <v>680</v>
       </c>
       <c r="O16" s="0">
-        <v>34920</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="17">
@@ -930,46 +939,46 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C17" s="0">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D17" s="0">
-        <v>157</v>
+        <v>1235</v>
       </c>
       <c r="E17" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F17" s="0">
-        <v>72000</v>
+        <v>720000</v>
       </c>
       <c r="G17" s="0">
-        <v>3924</v>
+        <v>39240</v>
       </c>
       <c r="H17" s="0">
-        <v>900</v>
+        <v>9000</v>
       </c>
       <c r="I17" s="0">
-        <v>43200</v>
+        <v>432000</v>
       </c>
       <c r="J17" s="0">
-        <v>23040</v>
+        <v>205440</v>
       </c>
       <c r="K17" s="0">
-        <v>785</v>
+        <v>6175</v>
       </c>
       <c r="L17" s="0">
-        <v>314</v>
+        <v>2470</v>
       </c>
       <c r="M17" s="0">
-        <v>314</v>
+        <v>2470</v>
       </c>
       <c r="N17" s="0">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="O17" s="0">
-        <v>480</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="18">
@@ -977,46 +986,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>2</v>
+        <v>1157</v>
       </c>
       <c r="C18" s="0">
-        <v>2</v>
+        <v>2012</v>
       </c>
       <c r="D18" s="0">
-        <v>13</v>
+        <v>27223</v>
       </c>
       <c r="E18" s="0">
-        <v>2</v>
+        <v>506</v>
       </c>
       <c r="F18" s="0">
-        <v>48000</v>
+        <v>12144000</v>
       </c>
       <c r="G18" s="0">
-        <v>2616</v>
+        <v>661848</v>
       </c>
       <c r="H18" s="0">
-        <v>600</v>
+        <v>151800</v>
       </c>
       <c r="I18" s="0">
-        <v>28800</v>
+        <v>7286400</v>
       </c>
       <c r="J18" s="0">
-        <v>3840</v>
+        <v>3863040</v>
       </c>
       <c r="K18" s="0">
-        <v>65</v>
+        <v>136115</v>
       </c>
       <c r="L18" s="0">
-        <v>26</v>
+        <v>54446</v>
       </c>
       <c r="M18" s="0">
-        <v>26</v>
+        <v>54446</v>
       </c>
       <c r="N18" s="0">
-        <v>80</v>
+        <v>20240</v>
       </c>
       <c r="O18" s="0">
-        <v>80</v>
+        <v>80480</v>
       </c>
     </row>
     <row r="19">
@@ -1024,46 +1033,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0">
-        <v>475</v>
+        <v>161</v>
       </c>
       <c r="E19" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F19" s="0">
-        <v>264000</v>
+        <v>144000</v>
       </c>
       <c r="G19" s="0">
-        <v>14388</v>
+        <v>7848</v>
       </c>
       <c r="H19" s="0">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="I19" s="0">
-        <v>158400</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="0">
-        <v>78720</v>
+        <v>34560</v>
       </c>
       <c r="K19" s="0">
-        <v>2375</v>
+        <v>805</v>
       </c>
       <c r="L19" s="0">
-        <v>950</v>
+        <v>322</v>
       </c>
       <c r="M19" s="0">
-        <v>950</v>
+        <v>322</v>
       </c>
       <c r="N19" s="0">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="O19" s="0">
-        <v>1640</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20">
@@ -1071,46 +1080,46 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D20" s="0">
-        <v>6829</v>
+        <v>31</v>
       </c>
       <c r="E20" s="0">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="F20" s="0">
-        <v>3144000</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="0">
-        <v>171348</v>
+        <v>2616</v>
       </c>
       <c r="H20" s="0">
-        <v>39300</v>
+        <v>600</v>
       </c>
       <c r="I20" s="0">
-        <v>1886400</v>
+        <v>28800</v>
       </c>
       <c r="J20" s="0">
-        <v>971520</v>
+        <v>5760</v>
       </c>
       <c r="K20" s="0">
-        <v>34145</v>
+        <v>155</v>
       </c>
       <c r="L20" s="0">
-        <v>13658</v>
+        <v>62</v>
       </c>
       <c r="M20" s="0">
-        <v>13658</v>
+        <v>62</v>
       </c>
       <c r="N20" s="0">
-        <v>5240</v>
+        <v>80</v>
       </c>
       <c r="O20" s="0">
-        <v>20240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -1118,46 +1127,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C21" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D21" s="0">
-        <v>330</v>
+        <v>792</v>
       </c>
       <c r="E21" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F21" s="0">
-        <v>240000</v>
+        <v>600000</v>
       </c>
       <c r="G21" s="0">
-        <v>13080</v>
+        <v>32700</v>
       </c>
       <c r="H21" s="0">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="I21" s="0">
-        <v>144000</v>
+        <v>360000</v>
       </c>
       <c r="J21" s="0">
-        <v>46080</v>
+        <v>184320</v>
       </c>
       <c r="K21" s="0">
-        <v>1650</v>
+        <v>3960</v>
       </c>
       <c r="L21" s="0">
-        <v>660</v>
+        <v>1584</v>
       </c>
       <c r="M21" s="0">
-        <v>660</v>
+        <v>1584</v>
       </c>
       <c r="N21" s="0">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="O21" s="0">
-        <v>960</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="22">
@@ -1165,46 +1174,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>164</v>
+        <v>455</v>
       </c>
       <c r="C22" s="0">
-        <v>241</v>
+        <v>624</v>
       </c>
       <c r="D22" s="0">
-        <v>3111</v>
+        <v>7465</v>
       </c>
       <c r="E22" s="0">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="F22" s="0">
-        <v>1536000</v>
+        <v>3888000</v>
       </c>
       <c r="G22" s="0">
-        <v>83712</v>
+        <v>211896</v>
       </c>
       <c r="H22" s="0">
-        <v>19200</v>
+        <v>48600</v>
       </c>
       <c r="I22" s="0">
-        <v>921600</v>
+        <v>2332800</v>
       </c>
       <c r="J22" s="0">
-        <v>462720</v>
+        <v>1198080</v>
       </c>
       <c r="K22" s="0">
-        <v>15555</v>
+        <v>37325</v>
       </c>
       <c r="L22" s="0">
-        <v>6222</v>
+        <v>14930</v>
       </c>
       <c r="M22" s="0">
-        <v>6222</v>
+        <v>14930</v>
       </c>
       <c r="N22" s="0">
-        <v>2560</v>
+        <v>6480</v>
       </c>
       <c r="O22" s="0">
-        <v>9640</v>
+        <v>24960</v>
       </c>
     </row>
     <row r="23">
@@ -1212,46 +1221,46 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E23" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="0">
-        <v>96000</v>
+        <v>144000</v>
       </c>
       <c r="G23" s="0">
-        <v>5232</v>
+        <v>7848</v>
       </c>
       <c r="H23" s="0">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="I23" s="0">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="J23" s="0">
-        <v>19200</v>
+        <v>26880</v>
       </c>
       <c r="K23" s="0">
-        <v>535</v>
+        <v>925</v>
       </c>
       <c r="L23" s="0">
-        <v>214</v>
+        <v>370</v>
       </c>
       <c r="M23" s="0">
-        <v>214</v>
+        <v>370</v>
       </c>
       <c r="N23" s="0">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="O23" s="0">
-        <v>400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24">
@@ -1259,46 +1268,187 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C24" s="0">
-        <v>193</v>
+        <v>471</v>
       </c>
       <c r="D24" s="0">
-        <v>1833</v>
+        <v>5977</v>
       </c>
       <c r="E24" s="0">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F24" s="0">
-        <v>1200000</v>
+        <v>2904000</v>
       </c>
       <c r="G24" s="0">
-        <v>65400</v>
+        <v>158268</v>
       </c>
       <c r="H24" s="0">
-        <v>15000</v>
+        <v>36300</v>
       </c>
       <c r="I24" s="0">
-        <v>720000</v>
+        <v>1742400</v>
       </c>
       <c r="J24" s="0">
-        <v>370560</v>
+        <v>904320</v>
       </c>
       <c r="K24" s="0">
-        <v>9165</v>
+        <v>29885</v>
       </c>
       <c r="L24" s="0">
-        <v>3666</v>
+        <v>11954</v>
       </c>
       <c r="M24" s="0">
-        <v>3666</v>
+        <v>11954</v>
       </c>
       <c r="N24" s="0">
-        <v>2000</v>
+        <v>4840</v>
       </c>
       <c r="O24" s="0">
-        <v>7720</v>
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0">
+        <v>24000</v>
+      </c>
+      <c r="G25" s="0">
+        <v>1308</v>
+      </c>
+      <c r="H25" s="0">
+        <v>300</v>
+      </c>
+      <c r="I25" s="0">
+        <v>14400</v>
+      </c>
+      <c r="J25" s="0">
+        <v>3840</v>
+      </c>
+      <c r="K25" s="0">
+        <v>40</v>
+      </c>
+      <c r="L25" s="0">
+        <v>16</v>
+      </c>
+      <c r="M25" s="0">
+        <v>16</v>
+      </c>
+      <c r="N25" s="0">
+        <v>40</v>
+      </c>
+      <c r="O25" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0">
+        <v>31</v>
+      </c>
+      <c r="C26" s="0">
+        <v>77</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1178</v>
+      </c>
+      <c r="E26" s="0">
+        <v>20</v>
+      </c>
+      <c r="F26" s="0">
+        <v>480000</v>
+      </c>
+      <c r="G26" s="0">
+        <v>26160</v>
+      </c>
+      <c r="H26" s="0">
+        <v>6000</v>
+      </c>
+      <c r="I26" s="0">
+        <v>288000</v>
+      </c>
+      <c r="J26" s="0">
+        <v>147840</v>
+      </c>
+      <c r="K26" s="0">
+        <v>5890</v>
+      </c>
+      <c r="L26" s="0">
+        <v>2356</v>
+      </c>
+      <c r="M26" s="0">
+        <v>2356</v>
+      </c>
+      <c r="N26" s="0">
+        <v>800</v>
+      </c>
+      <c r="O26" s="0">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0">
+        <v>315</v>
+      </c>
+      <c r="C27" s="0">
+        <v>560</v>
+      </c>
+      <c r="D27" s="0">
+        <v>7526</v>
+      </c>
+      <c r="E27" s="0">
+        <v>141</v>
+      </c>
+      <c r="F27" s="0">
+        <v>3384000</v>
+      </c>
+      <c r="G27" s="0">
+        <v>184428</v>
+      </c>
+      <c r="H27" s="0">
+        <v>42300</v>
+      </c>
+      <c r="I27" s="0">
+        <v>2030400</v>
+      </c>
+      <c r="J27" s="0">
+        <v>1075200</v>
+      </c>
+      <c r="K27" s="0">
+        <v>37630</v>
+      </c>
+      <c r="L27" s="0">
+        <v>15052</v>
+      </c>
+      <c r="M27" s="0">
+        <v>15052</v>
+      </c>
+      <c r="N27" s="0">
+        <v>5640</v>
+      </c>
+      <c r="O27" s="0">
+        <v>22400</v>
       </c>
     </row>
   </sheetData>

--- a/output/PxQ_UE_TaRL.xlsx
+++ b/output/PxQ_UE_TaRL.xlsx
@@ -234,46 +234,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C2" s="0">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="D2" s="0">
-        <v>1545</v>
+        <v>4379</v>
       </c>
       <c r="E2" s="0">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F2" s="0">
-        <v>1008000</v>
+        <v>1944000</v>
       </c>
       <c r="G2" s="0">
-        <v>54936</v>
+        <v>105948</v>
       </c>
       <c r="H2" s="0">
-        <v>12600</v>
+        <v>24300</v>
       </c>
       <c r="I2" s="0">
-        <v>604800</v>
+        <v>1166400</v>
       </c>
       <c r="J2" s="0">
-        <v>299520</v>
+        <v>602880</v>
       </c>
       <c r="K2" s="0">
-        <v>7725</v>
+        <v>21895</v>
       </c>
       <c r="L2" s="0">
-        <v>3090</v>
+        <v>8758</v>
       </c>
       <c r="M2" s="0">
-        <v>3090</v>
+        <v>8758</v>
       </c>
       <c r="N2" s="0">
-        <v>1680</v>
+        <v>3240</v>
       </c>
       <c r="O2" s="0">
-        <v>6240</v>
+        <v>12560</v>
       </c>
     </row>
     <row r="3">
@@ -281,46 +281,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C3" s="0">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="D3" s="0">
-        <v>3009</v>
+        <v>6598</v>
       </c>
       <c r="E3" s="0">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F3" s="0">
-        <v>1536000</v>
+        <v>2592000</v>
       </c>
       <c r="G3" s="0">
-        <v>83712</v>
+        <v>141264</v>
       </c>
       <c r="H3" s="0">
-        <v>19200</v>
+        <v>32400</v>
       </c>
       <c r="I3" s="0">
-        <v>921600</v>
+        <v>1555200</v>
       </c>
       <c r="J3" s="0">
-        <v>453120</v>
+        <v>791040</v>
       </c>
       <c r="K3" s="0">
-        <v>15045</v>
+        <v>32990</v>
       </c>
       <c r="L3" s="0">
-        <v>6018</v>
+        <v>13196</v>
       </c>
       <c r="M3" s="0">
-        <v>6018</v>
+        <v>13196</v>
       </c>
       <c r="N3" s="0">
-        <v>2560</v>
+        <v>4320</v>
       </c>
       <c r="O3" s="0">
-        <v>9440</v>
+        <v>16480</v>
       </c>
     </row>
     <row r="4">
@@ -334,7 +334,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0">
         <v>2</v>
@@ -355,13 +355,13 @@
         <v>3840</v>
       </c>
       <c r="K4" s="0">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L4" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M4" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0">
         <v>80</v>
@@ -375,46 +375,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D5" s="0">
-        <v>563</v>
+        <v>1303</v>
       </c>
       <c r="E5" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0">
-        <v>312000</v>
+        <v>504000</v>
       </c>
       <c r="G5" s="0">
-        <v>17004</v>
+        <v>27468</v>
       </c>
       <c r="H5" s="0">
-        <v>3900</v>
+        <v>6300</v>
       </c>
       <c r="I5" s="0">
-        <v>187200</v>
+        <v>302400</v>
       </c>
       <c r="J5" s="0">
-        <v>76800</v>
+        <v>142080</v>
       </c>
       <c r="K5" s="0">
-        <v>2815</v>
+        <v>6515</v>
       </c>
       <c r="L5" s="0">
-        <v>1126</v>
+        <v>2606</v>
       </c>
       <c r="M5" s="0">
-        <v>1126</v>
+        <v>2606</v>
       </c>
       <c r="N5" s="0">
-        <v>520</v>
+        <v>840</v>
       </c>
       <c r="O5" s="0">
-        <v>1600</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="6">
@@ -422,46 +422,46 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="E6" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0">
-        <v>144000</v>
+        <v>192000</v>
       </c>
       <c r="G6" s="0">
-        <v>7848</v>
+        <v>10464</v>
       </c>
       <c r="H6" s="0">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="I6" s="0">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J6" s="0">
-        <v>23040</v>
+        <v>36480</v>
       </c>
       <c r="K6" s="0">
-        <v>660</v>
+        <v>1410</v>
       </c>
       <c r="L6" s="0">
-        <v>264</v>
+        <v>564</v>
       </c>
       <c r="M6" s="0">
-        <v>264</v>
+        <v>564</v>
       </c>
       <c r="N6" s="0">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="O6" s="0">
-        <v>480</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7">
@@ -469,46 +469,46 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>836</v>
+        <v>966</v>
       </c>
       <c r="C7" s="0">
-        <v>1039</v>
+        <v>1810</v>
       </c>
       <c r="D7" s="0">
-        <v>11841</v>
+        <v>27036</v>
       </c>
       <c r="E7" s="0">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="F7" s="0">
-        <v>6336000</v>
+        <v>10992000</v>
       </c>
       <c r="G7" s="0">
-        <v>345312</v>
+        <v>599064</v>
       </c>
       <c r="H7" s="0">
-        <v>79200</v>
+        <v>137400</v>
       </c>
       <c r="I7" s="0">
-        <v>3801600</v>
+        <v>6595200</v>
       </c>
       <c r="J7" s="0">
-        <v>1994880</v>
+        <v>3475200</v>
       </c>
       <c r="K7" s="0">
-        <v>59205</v>
+        <v>135180</v>
       </c>
       <c r="L7" s="0">
-        <v>23682</v>
+        <v>54072</v>
       </c>
       <c r="M7" s="0">
-        <v>23682</v>
+        <v>54072</v>
       </c>
       <c r="N7" s="0">
-        <v>10560</v>
+        <v>18320</v>
       </c>
       <c r="O7" s="0">
-        <v>41560</v>
+        <v>72400</v>
       </c>
     </row>
     <row r="8">
@@ -519,43 +519,43 @@
         <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0">
-        <v>24000</v>
+        <v>96000</v>
       </c>
       <c r="G8" s="0">
-        <v>1308</v>
+        <v>5232</v>
       </c>
       <c r="H8" s="0">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="0">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="J8" s="0">
-        <v>5760</v>
+        <v>28800</v>
       </c>
       <c r="K8" s="0">
-        <v>220</v>
+        <v>1425</v>
       </c>
       <c r="L8" s="0">
-        <v>88</v>
+        <v>570</v>
       </c>
       <c r="M8" s="0">
-        <v>88</v>
+        <v>570</v>
       </c>
       <c r="N8" s="0">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="O8" s="0">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -563,46 +563,46 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D9" s="0">
-        <v>356</v>
+        <v>1337</v>
       </c>
       <c r="E9" s="0">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F9" s="0">
-        <v>288000</v>
+        <v>624000</v>
       </c>
       <c r="G9" s="0">
-        <v>15696</v>
+        <v>34008</v>
       </c>
       <c r="H9" s="0">
-        <v>3600</v>
+        <v>7800</v>
       </c>
       <c r="I9" s="0">
-        <v>172800</v>
+        <v>374400</v>
       </c>
       <c r="J9" s="0">
-        <v>71040</v>
+        <v>176640</v>
       </c>
       <c r="K9" s="0">
-        <v>1780</v>
+        <v>6685</v>
       </c>
       <c r="L9" s="0">
-        <v>712</v>
+        <v>2674</v>
       </c>
       <c r="M9" s="0">
-        <v>712</v>
+        <v>2674</v>
       </c>
       <c r="N9" s="0">
-        <v>480</v>
+        <v>1040</v>
       </c>
       <c r="O9" s="0">
-        <v>1480</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="10">
@@ -610,46 +610,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C10" s="0">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D10" s="0">
-        <v>847</v>
+        <v>2055</v>
       </c>
       <c r="E10" s="0">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F10" s="0">
-        <v>672000</v>
+        <v>1056000</v>
       </c>
       <c r="G10" s="0">
-        <v>36624</v>
+        <v>57552</v>
       </c>
       <c r="H10" s="0">
-        <v>8400</v>
+        <v>13200</v>
       </c>
       <c r="I10" s="0">
-        <v>403200</v>
+        <v>633600</v>
       </c>
       <c r="J10" s="0">
-        <v>190080</v>
+        <v>309120</v>
       </c>
       <c r="K10" s="0">
-        <v>4235</v>
+        <v>10275</v>
       </c>
       <c r="L10" s="0">
-        <v>1694</v>
+        <v>4110</v>
       </c>
       <c r="M10" s="0">
-        <v>1694</v>
+        <v>4110</v>
       </c>
       <c r="N10" s="0">
-        <v>1120</v>
+        <v>1760</v>
       </c>
       <c r="O10" s="0">
-        <v>3960</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="11">
@@ -657,46 +657,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="C11" s="0">
-        <v>321</v>
+        <v>536</v>
       </c>
       <c r="D11" s="0">
-        <v>3244</v>
+        <v>7414</v>
       </c>
       <c r="E11" s="0">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="F11" s="0">
-        <v>2016000</v>
+        <v>3312000</v>
       </c>
       <c r="G11" s="0">
-        <v>109872</v>
+        <v>180504</v>
       </c>
       <c r="H11" s="0">
-        <v>25200</v>
+        <v>41400</v>
       </c>
       <c r="I11" s="0">
-        <v>1209600</v>
+        <v>1987200</v>
       </c>
       <c r="J11" s="0">
-        <v>616320</v>
+        <v>1029120</v>
       </c>
       <c r="K11" s="0">
-        <v>16220</v>
+        <v>37070</v>
       </c>
       <c r="L11" s="0">
-        <v>6488</v>
+        <v>14828</v>
       </c>
       <c r="M11" s="0">
-        <v>6488</v>
+        <v>14828</v>
       </c>
       <c r="N11" s="0">
-        <v>3360</v>
+        <v>5520</v>
       </c>
       <c r="O11" s="0">
-        <v>12840</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="12">
@@ -704,46 +704,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D12" s="0">
-        <v>460</v>
+        <v>1244</v>
       </c>
       <c r="E12" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F12" s="0">
-        <v>360000</v>
+        <v>576000</v>
       </c>
       <c r="G12" s="0">
-        <v>19620</v>
+        <v>31392</v>
       </c>
       <c r="H12" s="0">
-        <v>4500</v>
+        <v>7200</v>
       </c>
       <c r="I12" s="0">
-        <v>216000</v>
+        <v>345600</v>
       </c>
       <c r="J12" s="0">
-        <v>96000</v>
+        <v>172800</v>
       </c>
       <c r="K12" s="0">
-        <v>2300</v>
+        <v>6220</v>
       </c>
       <c r="L12" s="0">
-        <v>920</v>
+        <v>2488</v>
       </c>
       <c r="M12" s="0">
-        <v>920</v>
+        <v>2488</v>
       </c>
       <c r="N12" s="0">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="O12" s="0">
-        <v>2000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13">
@@ -751,46 +751,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0">
-        <v>261</v>
+        <v>445</v>
       </c>
       <c r="D13" s="0">
-        <v>2679</v>
+        <v>6115</v>
       </c>
       <c r="E13" s="0">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F13" s="0">
-        <v>1680000</v>
+        <v>2784000</v>
       </c>
       <c r="G13" s="0">
-        <v>91560</v>
+        <v>151728</v>
       </c>
       <c r="H13" s="0">
-        <v>21000</v>
+        <v>34800</v>
       </c>
       <c r="I13" s="0">
-        <v>1008000</v>
+        <v>1670400</v>
       </c>
       <c r="J13" s="0">
-        <v>501120</v>
+        <v>854400</v>
       </c>
       <c r="K13" s="0">
-        <v>13395</v>
+        <v>30575</v>
       </c>
       <c r="L13" s="0">
-        <v>5358</v>
+        <v>12230</v>
       </c>
       <c r="M13" s="0">
-        <v>5358</v>
+        <v>12230</v>
       </c>
       <c r="N13" s="0">
-        <v>2800</v>
+        <v>4640</v>
       </c>
       <c r="O13" s="0">
-        <v>10440</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="14">
@@ -798,46 +798,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>626</v>
+        <v>687</v>
       </c>
       <c r="C14" s="0">
-        <v>1033</v>
+        <v>1877</v>
       </c>
       <c r="D14" s="0">
-        <v>14202</v>
+        <v>30995</v>
       </c>
       <c r="E14" s="0">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="F14" s="0">
-        <v>6312000</v>
+        <v>11472000</v>
       </c>
       <c r="G14" s="0">
-        <v>344004</v>
+        <v>625224</v>
       </c>
       <c r="H14" s="0">
-        <v>78900</v>
+        <v>143400</v>
       </c>
       <c r="I14" s="0">
-        <v>3787200</v>
+        <v>6883200</v>
       </c>
       <c r="J14" s="0">
-        <v>1983360</v>
+        <v>3603840</v>
       </c>
       <c r="K14" s="0">
-        <v>71010</v>
+        <v>154975</v>
       </c>
       <c r="L14" s="0">
-        <v>28404</v>
+        <v>61990</v>
       </c>
       <c r="M14" s="0">
-        <v>28404</v>
+        <v>61990</v>
       </c>
       <c r="N14" s="0">
-        <v>10520</v>
+        <v>19120</v>
       </c>
       <c r="O14" s="0">
-        <v>41320</v>
+        <v>75080</v>
       </c>
     </row>
     <row r="15">
@@ -845,46 +845,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C15" s="0">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="D15" s="0">
-        <v>3989</v>
+        <v>8102</v>
       </c>
       <c r="E15" s="0">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="F15" s="0">
-        <v>1704000</v>
+        <v>2928000</v>
       </c>
       <c r="G15" s="0">
-        <v>92868</v>
+        <v>159576</v>
       </c>
       <c r="H15" s="0">
-        <v>21300</v>
+        <v>36600</v>
       </c>
       <c r="I15" s="0">
-        <v>1022400</v>
+        <v>1756800</v>
       </c>
       <c r="J15" s="0">
-        <v>533760</v>
+        <v>933120</v>
       </c>
       <c r="K15" s="0">
-        <v>19945</v>
+        <v>40510</v>
       </c>
       <c r="L15" s="0">
-        <v>7978</v>
+        <v>16204</v>
       </c>
       <c r="M15" s="0">
-        <v>7978</v>
+        <v>16204</v>
       </c>
       <c r="N15" s="0">
-        <v>2840</v>
+        <v>4880</v>
       </c>
       <c r="O15" s="0">
-        <v>11120</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="16">
@@ -892,46 +892,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D16" s="0">
-        <v>1051</v>
+        <v>2238</v>
       </c>
       <c r="E16" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F16" s="0">
-        <v>408000</v>
+        <v>720000</v>
       </c>
       <c r="G16" s="0">
-        <v>22236</v>
+        <v>39240</v>
       </c>
       <c r="H16" s="0">
-        <v>5100</v>
+        <v>9000</v>
       </c>
       <c r="I16" s="0">
-        <v>244800</v>
+        <v>432000</v>
       </c>
       <c r="J16" s="0">
-        <v>105600</v>
+        <v>226560</v>
       </c>
       <c r="K16" s="0">
-        <v>5255</v>
+        <v>11190</v>
       </c>
       <c r="L16" s="0">
-        <v>2102</v>
+        <v>4476</v>
       </c>
       <c r="M16" s="0">
-        <v>2102</v>
+        <v>4476</v>
       </c>
       <c r="N16" s="0">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="O16" s="0">
-        <v>2200</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="17">
@@ -939,46 +939,46 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C17" s="0">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="D17" s="0">
-        <v>1235</v>
+        <v>2523</v>
       </c>
       <c r="E17" s="0">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F17" s="0">
-        <v>720000</v>
+        <v>1104000</v>
       </c>
       <c r="G17" s="0">
-        <v>39240</v>
+        <v>60168</v>
       </c>
       <c r="H17" s="0">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="I17" s="0">
-        <v>432000</v>
+        <v>662400</v>
       </c>
       <c r="J17" s="0">
-        <v>205440</v>
+        <v>326400</v>
       </c>
       <c r="K17" s="0">
-        <v>6175</v>
+        <v>12615</v>
       </c>
       <c r="L17" s="0">
-        <v>2470</v>
+        <v>5046</v>
       </c>
       <c r="M17" s="0">
-        <v>2470</v>
+        <v>5046</v>
       </c>
       <c r="N17" s="0">
-        <v>1200</v>
+        <v>1840</v>
       </c>
       <c r="O17" s="0">
-        <v>4280</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="18">
@@ -986,46 +986,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>1157</v>
+        <v>1197</v>
       </c>
       <c r="C18" s="0">
-        <v>2012</v>
+        <v>3358</v>
       </c>
       <c r="D18" s="0">
-        <v>27223</v>
+        <v>55678</v>
       </c>
       <c r="E18" s="0">
-        <v>506</v>
+        <v>841</v>
       </c>
       <c r="F18" s="0">
-        <v>12144000</v>
+        <v>20184000</v>
       </c>
       <c r="G18" s="0">
-        <v>661848</v>
+        <v>1100028</v>
       </c>
       <c r="H18" s="0">
-        <v>151800</v>
+        <v>252300</v>
       </c>
       <c r="I18" s="0">
-        <v>7286400</v>
+        <v>12110400</v>
       </c>
       <c r="J18" s="0">
-        <v>3863040</v>
+        <v>6447360</v>
       </c>
       <c r="K18" s="0">
-        <v>136115</v>
+        <v>278390</v>
       </c>
       <c r="L18" s="0">
-        <v>54446</v>
+        <v>111356</v>
       </c>
       <c r="M18" s="0">
-        <v>54446</v>
+        <v>111356</v>
       </c>
       <c r="N18" s="0">
-        <v>20240</v>
+        <v>33640</v>
       </c>
       <c r="O18" s="0">
-        <v>80480</v>
+        <v>134320</v>
       </c>
     </row>
     <row r="19">
@@ -1033,46 +1033,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="E19" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0">
-        <v>144000</v>
+        <v>192000</v>
       </c>
       <c r="G19" s="0">
-        <v>7848</v>
+        <v>10464</v>
       </c>
       <c r="H19" s="0">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="I19" s="0">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J19" s="0">
-        <v>34560</v>
+        <v>49920</v>
       </c>
       <c r="K19" s="0">
-        <v>805</v>
+        <v>1430</v>
       </c>
       <c r="L19" s="0">
-        <v>322</v>
+        <v>572</v>
       </c>
       <c r="M19" s="0">
-        <v>322</v>
+        <v>572</v>
       </c>
       <c r="N19" s="0">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="O19" s="0">
-        <v>720</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20">
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0">
         <v>2</v>
@@ -1107,13 +1107,13 @@
         <v>5760</v>
       </c>
       <c r="K20" s="0">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L20" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M20" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N20" s="0">
         <v>80</v>
@@ -1127,46 +1127,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C21" s="0">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D21" s="0">
-        <v>792</v>
+        <v>1541</v>
       </c>
       <c r="E21" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F21" s="0">
-        <v>600000</v>
+        <v>792000</v>
       </c>
       <c r="G21" s="0">
-        <v>32700</v>
+        <v>43164</v>
       </c>
       <c r="H21" s="0">
-        <v>7500</v>
+        <v>9900</v>
       </c>
       <c r="I21" s="0">
-        <v>360000</v>
+        <v>475200</v>
       </c>
       <c r="J21" s="0">
-        <v>184320</v>
+        <v>241920</v>
       </c>
       <c r="K21" s="0">
-        <v>3960</v>
+        <v>7705</v>
       </c>
       <c r="L21" s="0">
-        <v>1584</v>
+        <v>3082</v>
       </c>
       <c r="M21" s="0">
-        <v>1584</v>
+        <v>3082</v>
       </c>
       <c r="N21" s="0">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="O21" s="0">
-        <v>3840</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="22">
@@ -1174,46 +1174,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="C22" s="0">
-        <v>624</v>
+        <v>1028</v>
       </c>
       <c r="D22" s="0">
-        <v>7465</v>
+        <v>15924</v>
       </c>
       <c r="E22" s="0">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="F22" s="0">
-        <v>3888000</v>
+        <v>6240000</v>
       </c>
       <c r="G22" s="0">
-        <v>211896</v>
+        <v>340080</v>
       </c>
       <c r="H22" s="0">
-        <v>48600</v>
+        <v>78000</v>
       </c>
       <c r="I22" s="0">
-        <v>2332800</v>
+        <v>3744000</v>
       </c>
       <c r="J22" s="0">
-        <v>1198080</v>
+        <v>1973760</v>
       </c>
       <c r="K22" s="0">
-        <v>37325</v>
+        <v>79620</v>
       </c>
       <c r="L22" s="0">
-        <v>14930</v>
+        <v>31848</v>
       </c>
       <c r="M22" s="0">
-        <v>14930</v>
+        <v>31848</v>
       </c>
       <c r="N22" s="0">
-        <v>6480</v>
+        <v>10400</v>
       </c>
       <c r="O22" s="0">
-        <v>24960</v>
+        <v>41120</v>
       </c>
     </row>
     <row r="23">
@@ -1221,46 +1221,46 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0">
-        <v>185</v>
+        <v>443</v>
       </c>
       <c r="E23" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" s="0">
-        <v>144000</v>
+        <v>216000</v>
       </c>
       <c r="G23" s="0">
-        <v>7848</v>
+        <v>11772</v>
       </c>
       <c r="H23" s="0">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="I23" s="0">
-        <v>86400</v>
+        <v>129600</v>
       </c>
       <c r="J23" s="0">
-        <v>26880</v>
+        <v>53760</v>
       </c>
       <c r="K23" s="0">
-        <v>925</v>
+        <v>2215</v>
       </c>
       <c r="L23" s="0">
-        <v>370</v>
+        <v>886</v>
       </c>
       <c r="M23" s="0">
-        <v>370</v>
+        <v>886</v>
       </c>
       <c r="N23" s="0">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="O23" s="0">
-        <v>560</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24">
@@ -1268,46 +1268,46 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C24" s="0">
-        <v>471</v>
+        <v>811</v>
       </c>
       <c r="D24" s="0">
-        <v>5977</v>
+        <v>12658</v>
       </c>
       <c r="E24" s="0">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="F24" s="0">
-        <v>2904000</v>
+        <v>4968000</v>
       </c>
       <c r="G24" s="0">
-        <v>158268</v>
+        <v>270756</v>
       </c>
       <c r="H24" s="0">
-        <v>36300</v>
+        <v>62100</v>
       </c>
       <c r="I24" s="0">
-        <v>1742400</v>
+        <v>2980800</v>
       </c>
       <c r="J24" s="0">
-        <v>904320</v>
+        <v>1557120</v>
       </c>
       <c r="K24" s="0">
-        <v>29885</v>
+        <v>63290</v>
       </c>
       <c r="L24" s="0">
-        <v>11954</v>
+        <v>25316</v>
       </c>
       <c r="M24" s="0">
-        <v>11954</v>
+        <v>25316</v>
       </c>
       <c r="N24" s="0">
-        <v>4840</v>
+        <v>8280</v>
       </c>
       <c r="O24" s="0">
-        <v>18840</v>
+        <v>32440</v>
       </c>
     </row>
     <row r="25">
@@ -1315,13 +1315,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E25" s="0">
         <v>1</v>
@@ -1339,22 +1339,22 @@
         <v>14400</v>
       </c>
       <c r="J25" s="0">
-        <v>3840</v>
+        <v>5760</v>
       </c>
       <c r="K25" s="0">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L25" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M25" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N25" s="0">
         <v>40</v>
       </c>
       <c r="O25" s="0">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -1362,46 +1362,46 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="0">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D26" s="0">
-        <v>1178</v>
+        <v>1927</v>
       </c>
       <c r="E26" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F26" s="0">
-        <v>480000</v>
+        <v>720000</v>
       </c>
       <c r="G26" s="0">
-        <v>26160</v>
+        <v>39240</v>
       </c>
       <c r="H26" s="0">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I26" s="0">
-        <v>288000</v>
+        <v>432000</v>
       </c>
       <c r="J26" s="0">
-        <v>147840</v>
+        <v>220800</v>
       </c>
       <c r="K26" s="0">
-        <v>5890</v>
+        <v>9635</v>
       </c>
       <c r="L26" s="0">
-        <v>2356</v>
+        <v>3854</v>
       </c>
       <c r="M26" s="0">
-        <v>2356</v>
+        <v>3854</v>
       </c>
       <c r="N26" s="0">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O26" s="0">
-        <v>3080</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="27">
@@ -1409,46 +1409,46 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="C27" s="0">
-        <v>560</v>
+        <v>946</v>
       </c>
       <c r="D27" s="0">
-        <v>7526</v>
+        <v>15624</v>
       </c>
       <c r="E27" s="0">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="F27" s="0">
-        <v>3384000</v>
+        <v>5712000</v>
       </c>
       <c r="G27" s="0">
-        <v>184428</v>
+        <v>311304</v>
       </c>
       <c r="H27" s="0">
-        <v>42300</v>
+        <v>71400</v>
       </c>
       <c r="I27" s="0">
-        <v>2030400</v>
+        <v>3427200</v>
       </c>
       <c r="J27" s="0">
-        <v>1075200</v>
+        <v>1816320</v>
       </c>
       <c r="K27" s="0">
-        <v>37630</v>
+        <v>78120</v>
       </c>
       <c r="L27" s="0">
-        <v>15052</v>
+        <v>31248</v>
       </c>
       <c r="M27" s="0">
-        <v>15052</v>
+        <v>31248</v>
       </c>
       <c r="N27" s="0">
-        <v>5640</v>
+        <v>9520</v>
       </c>
       <c r="O27" s="0">
-        <v>22400</v>
+        <v>37840</v>
       </c>
     </row>
   </sheetData>
